--- a/Documentos/Tabla de Equipo.xlsx
+++ b/Documentos/Tabla de Equipo.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R613259c2a52d4c0f"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R4fc1c85273a340a7"/>
   </x:sheets>
 </x:workbook>
 </file>
